--- a/ValueSet-hepatitis-condition-status-trend-vs.xlsx
+++ b/ValueSet-hepatitis-condition-status-trend-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T11:22:06+00:00</t>
+    <t>2022-03-09T11:49:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-hepatitis-condition-status-trend-vs.xlsx
+++ b/ValueSet-hepatitis-condition-status-trend-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T11:49:10+00:00</t>
+    <t>2022-05-31T09:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
